--- a/biology/Botanique/Rubinola/Rubinola.xlsx
+++ b/biology/Botanique/Rubinola/Rubinola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rubinola est un cultivar de pommier domestique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rubinola est un cultivar de pommier domestique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Règlementations et protections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>RUBINOLA est une variété inscrite au registre de l'Union européenne[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>RUBINOLA est une variété inscrite au registre de l'Union européenne:
 Numéro de variété: 5824
 Date d'inscription: 15/11/1995
 Demandeur: Institute of Experimental Botany AS CR v.v.l.</t>
@@ -544,10 +558,12 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Épicarpe : rouge clair sur la plus grande partie de sa surface.
-Chair : jaune, ferme[3], juteuse, avec un arôme agréable.
+Chair : jaune, ferme, juteuse, avec un arôme agréable.
 Calibre : moyen à gros.
 Forme : aplati, assez sphérique.</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Obtenu en 1980 à Strizovice en République tchèque [4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obtenu en 1980 à Strizovice en République tchèque .
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cultivar Rubinola résulte du croisement Prima x Rubin.
 </t>
@@ -639,7 +659,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Variété diploïde
 Groupe pollinique : C (longue autour de la mi-saison)
@@ -672,11 +694,13 @@
           <t>Susceptibilité aux maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tavelure : ce cultivar possède une résistance génétique aux races communes de tavelure (gène Vf).
 Mildiou : moyennement résistant.
-Prolifération du pommier : tolérant[5].</t>
+Prolifération du pommier : tolérant.</t>
         </is>
       </c>
     </row>
@@ -704,7 +728,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Maturité : 10 jours avant la Golden Delicious
 Cultivar vigoureux à utiliser sur porte-greffe de faible vigueur (M9).</t>
